--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_0_28.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_0_28.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>61072.68991238614</v>
+        <v>4443787.454656231</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>61072.68991238614</v>
+        <v>4443787.454656231</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1608967026.091169</v>
+        <v>61216348.24006182</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>14058.75853343289</v>
+        <v>1322345.892349224</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>28117.51706686578</v>
+        <v>2644691.784698448</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>42176.27560029867</v>
+        <v>3967037.677047674</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>59034.83285141795</v>
+        <v>5070033.44030305</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>74574.52592624897</v>
+        <v>6311766.643521725</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>90114.21900108</v>
+        <v>7553499.846740392</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>105653.9120759042</v>
+        <v>8795233.049959835</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>121193.6051507285</v>
+        <v>10036966.25317928</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>138052.1624018451</v>
+        <v>11139962.01643499</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>153591.8554766625</v>
+        <v>12381695.21965521</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>169131.548551481</v>
+        <v>13623428.42287533</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>184671.2416263053</v>
+        <v>14865161.62609478</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>200210.9347011296</v>
+        <v>16106894.82931424</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>216520.8495045683</v>
+        <v>17265393.46572143</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>236513.7753641337</v>
+        <v>17968797.65428275</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>133.0000000001133</v>
@@ -27052,13 +27052,13 @@
         <v>83.00000000011413</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
         <v>4.656328655983089e-10</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>49.99999999965385</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>1374</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
